--- a/SUS_INTUI_WORD1.xlsx
+++ b/SUS_INTUI_WORD1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test1\Documents\P8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3954C445-7BB3-40A3-B4E9-731DA2CD3A5B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C79C318-C7D8-49BD-9E99-DDA976BA9EBC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11550" windowHeight="7590" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11550" windowHeight="7590" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SusHelix" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="142">
   <si>
     <t>Helix</t>
   </si>
@@ -452,6 +452,12 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difficult </t>
+  </si>
+  <si>
+    <t>Inconsisten</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1475,1077 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="110000"/>
+                    <a:satMod val="105000"/>
+                    <a:tint val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="103000"/>
+                    <a:tint val="73000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="105000"/>
+                    <a:satMod val="109000"/>
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>WordHelix!$M$2:$M$24</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>Professional</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Satisfying</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Annoying</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Clean</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Inconsisten</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ineffective</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Comprehensive</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Attractive</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Unpredictable</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Overwhelming</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Relevant</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Useful</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Convenient</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Approachable</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Powerful</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Difficult </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Impersonal</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Advanced</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>High quality</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Complex</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Flexible</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Time-comsuming</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Confusing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>WordHelix!$N$2:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A4D-4AF6-B764-92FAA9028A2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>WordHelix!$M$2:$M$24</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>Professional</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Satisfying</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Annoying</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Clean</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Inconsisten</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ineffective</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Comprehensive</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Attractive</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Unpredictable</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Overwhelming</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Relevant</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Useful</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Convenient</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Approachable</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Powerful</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Difficult </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Impersonal</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Advanced</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>High quality</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Complex</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Flexible</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Time-comsuming</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Confusing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>WordHelix!$O$2:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2A4D-4AF6-B764-92FAA9028A2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="455033256"/>
+        <c:axId val="356830200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="455033256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="356830200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="356830200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455033256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>WordHeadrush!$P$2:$P$28</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>Predictable</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Reliable</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Consistent</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Satisfying</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Flexible</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Attractive</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Inviting</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Unrefined</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Creative</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Clean</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>High quality</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Annoying</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Time-consuming</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Intimidating</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ineffective</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Advanced</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Powerful</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Fast</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Useful</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Organized</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Comprehensive</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Easy to use</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Straight forward</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Complex</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Approachable</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Professional</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Convenient</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>WordHeadrush!$Q$2:$Q$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E9C0-437C-9FAB-CB6A35BFF0A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="535888480"/>
+        <c:axId val="535890448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="535888480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="535890448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="535890448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="535888480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2025,6 +3101,1056 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="219">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="219">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2046,6 +4172,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F0D6A75-1A2A-44AA-91C3-A4D1BDAB1949}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E1C9EE-A1EA-47DC-8EDD-EF59F8DBF7C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>776287</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA78202-D1C4-4AB8-8482-DF7A2B85F831}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +4949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -5992,10 +8200,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6008,9 +8216,10 @@
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6039,7 +8248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
@@ -6064,14 +8273,18 @@
       <c r="I2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="O2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
@@ -6096,14 +8309,18 @@
       <c r="I3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="M3" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>34</v>
       </c>
@@ -6128,14 +8345,18 @@
       <c r="I4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="M4" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="O4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
@@ -6160,14 +8381,18 @@
       <c r="I5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="M5" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="O5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
@@ -6192,14 +8417,18 @@
       <c r="I6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="M6" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="O6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
@@ -6218,14 +8447,18 @@
       <c r="I7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>99</v>
       </c>
+      <c r="M7" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="O7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>38</v>
       </c>
@@ -6241,14 +8474,18 @@
       <c r="I8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="M8" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="O8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
@@ -6264,14 +8501,18 @@
       <c r="I9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="M9" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="O9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
@@ -6287,14 +8528,18 @@
       <c r="I10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="M10" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="O10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
@@ -6310,14 +8555,18 @@
       <c r="I11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="M11" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="O11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>42</v>
       </c>
@@ -6333,14 +8582,18 @@
       <c r="I12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="M12" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="O12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>43</v>
       </c>
@@ -6353,14 +8606,18 @@
       <c r="G13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="M13" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="O13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>44</v>
       </c>
@@ -6370,14 +8627,18 @@
       <c r="F14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="M14" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="O14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
@@ -6387,14 +8648,18 @@
       <c r="F15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="M15" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="O15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>46</v>
       </c>
@@ -6404,14 +8669,18 @@
       <c r="F16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="M16" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="O16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>47</v>
       </c>
@@ -6421,14 +8690,18 @@
       <c r="F17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="M17" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="O17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>48</v>
       </c>
@@ -6438,14 +8711,18 @@
       <c r="F18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="M18" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="O18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>49</v>
       </c>
@@ -6455,14 +8732,18 @@
       <c r="F19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="M19" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="O19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>50</v>
       </c>
@@ -6472,14 +8753,18 @@
       <c r="F20" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="M20" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="O20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>51</v>
       </c>
@@ -6489,67 +8774,105 @@
       <c r="F21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="M21" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="O21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>37</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="M22" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="O22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F23" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="M23" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="O23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>115</v>
       </c>
+      <c r="M24" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="O24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O25">
+        <v>5</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O26">
         <f>SUM(O2:O24)</f>
         <v>40</v>
       </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="M2:O24">
+    <sortCondition ref="O2:O24"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6563,9 +8886,10 @@
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -6594,7 +8918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
@@ -6625,8 +8949,14 @@
       <c r="M2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>48</v>
       </c>
@@ -6657,8 +8987,14 @@
       <c r="M3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>52</v>
       </c>
@@ -6689,8 +9025,14 @@
       <c r="M4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
@@ -6721,8 +9063,14 @@
       <c r="M5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -6753,8 +9101,14 @@
       <c r="M6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>41</v>
       </c>
@@ -6776,8 +9130,14 @@
       <c r="M7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>53</v>
       </c>
@@ -6799,8 +9159,14 @@
       <c r="M8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>54</v>
       </c>
@@ -6822,8 +9188,14 @@
       <c r="M9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>55</v>
       </c>
@@ -6845,8 +9217,14 @@
       <c r="M10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>56</v>
       </c>
@@ -6868,8 +9246,14 @@
       <c r="M11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
@@ -6888,8 +9272,14 @@
       <c r="M12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>40</v>
       </c>
@@ -6908,8 +9298,14 @@
       <c r="M13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6925,8 +9321,14 @@
       <c r="M14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>51</v>
       </c>
@@ -6942,8 +9344,14 @@
       <c r="M15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>57</v>
       </c>
@@ -6959,8 +9367,14 @@
       <c r="M16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>58</v>
       </c>
@@ -6976,8 +9390,14 @@
       <c r="M17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
@@ -6993,8 +9413,14 @@
       <c r="M18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
@@ -7004,8 +9430,14 @@
       <c r="M19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>59</v>
       </c>
@@ -7015,8 +9447,14 @@
       <c r="M20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>60</v>
       </c>
@@ -7026,8 +9464,14 @@
       <c r="M21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>61</v>
       </c>
@@ -7037,8 +9481,14 @@
       <c r="M22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>62</v>
       </c>
@@ -7048,8 +9498,14 @@
       <c r="M23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>63</v>
       </c>
@@ -7059,40 +9515,70 @@
       <c r="M24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L25" s="2" t="s">
         <v>134</v>
       </c>
       <c r="M25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L26" s="2" t="s">
         <v>137</v>
       </c>
       <c r="M26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L27" s="2" t="s">
         <v>135</v>
       </c>
       <c r="M27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L28" s="2" t="s">
         <v>136</v>
       </c>
       <c r="M28">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="P28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="M30">
         <f>SUM(M2:M28)</f>
         <v>40</v>
@@ -7100,5 +9586,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SUS_INTUI_WORD1.xlsx
+++ b/SUS_INTUI_WORD1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test1\Documents\P8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C79C318-C7D8-49BD-9E99-DDA976BA9EBC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EA81C2-6B55-486A-85A6-367A20BE85EB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11550" windowHeight="7590" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11550" windowHeight="7590" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SusHelix" sheetId="1" r:id="rId1"/>
@@ -1490,6 +1490,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Helix - Reaction</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> cards</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1521,7 +1551,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29025731754425071"/>
+          <c:y val="6.1826703363787532E-2"/>
+          <c:w val="0.56374877609455476"/>
+          <c:h val="0.86618943258899117"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -1664,7 +1704,7 @@
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
@@ -1675,6 +1715,248 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-8E91-4B26-9007-C899F7E08BE2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-8E91-4B26-9007-C899F7E08BE2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-8E91-4B26-9007-C899F7E08BE2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-8E91-4B26-9007-C899F7E08BE2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8E91-4B26-9007-C899F7E08BE2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-8E91-4B26-9007-C899F7E08BE2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8E91-4B26-9007-C899F7E08BE2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-8E91-4B26-9007-C899F7E08BE2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8E91-4B26-9007-C899F7E08BE2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-8E91-4B26-9007-C899F7E08BE2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-8E91-4B26-9007-C899F7E08BE2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>WordHelix!$M$2:$M$24</c:f>
@@ -1855,6 +2137,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Adjectives</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1878,11 +2215,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1903,6 +2240,7 @@
         <c:axId val="356830200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1920,6 +2258,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1954,6 +2347,7 @@
         <c:crossAx val="455033256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1963,41 +2357,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2014,12 +2373,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2057,6 +2411,1187 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Headrush - Reaction cards</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29416098519082523"/>
+          <c:y val="8.0010349637248651E-2"/>
+          <c:w val="0.55434268540663878"/>
+          <c:h val="0.81311993584595721"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-FEE7-40EC-A907-28308A4EE4E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>WordHeadrush!$P$2:$P$28</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>Predictable</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Reliable</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Consistent</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Satisfying</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Flexible</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Attractive</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Inviting</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Unrefined</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Creative</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Clean</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>High quality</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Annoying</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Time-consuming</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Intimidating</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ineffective</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Advanced</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Powerful</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Fast</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Useful</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Organized</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Comprehensive</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Easy to use</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Straight forward</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Complex</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Approachable</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Professional</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Convenient</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>WordHeadrush!$Q$2:$Q$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000036-FEE7-40EC-A907-28308A4EE4E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="535888480"/>
+        <c:axId val="535890448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="535888480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Adjectives</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="535890448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="535890448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>frequency</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="535888480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Headrush - Reaction cards</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2092,23 +3627,615 @@
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln>
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3AD1-4419-9726-AB75D7B51B47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3AD1-4419-9726-AB75D7B51B47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3AD1-4419-9726-AB75D7B51B47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3AD1-4419-9726-AB75D7B51B47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3AD1-4419-9726-AB75D7B51B47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-3AD1-4419-9726-AB75D7B51B47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-3AD1-4419-9726-AB75D7B51B47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-3858-4D9A-AE3E-72FA74A906FA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-3AD1-4419-9726-AB75D7B51B47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-3AD1-4419-9726-AB75D7B51B47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-3AD1-4419-9726-AB75D7B51B47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3858-4D9A-AE3E-72FA74A906FA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-3858-4D9A-AE3E-72FA74A906FA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3858-4D9A-AE3E-72FA74A906FA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-3858-4D9A-AE3E-72FA74A906FA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-3AD1-4419-9726-AB75D7B51B47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-3AD1-4419-9726-AB75D7B51B47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-3AD1-4419-9726-AB75D7B51B47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-3AD1-4419-9726-AB75D7B51B47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-3AD1-4419-9726-AB75D7B51B47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-3AD1-4419-9726-AB75D7B51B47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-3AD1-4419-9726-AB75D7B51B47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-3AD1-4419-9726-AB75D7B51B47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3858-4D9A-AE3E-72FA74A906FA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-3AD1-4419-9726-AB75D7B51B47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-3AD1-4419-9726-AB75D7B51B47}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-3858-4D9A-AE3E-72FA74A906FA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>WordHeadrush!$P$2:$P$28</c:f>
@@ -2546,6 +4673,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4151,6 +6318,531 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="219">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4196,16 +6888,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1153513</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>56905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1295400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>90304</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4230,6 +6922,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>463880</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>134834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>519545</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79547908-8D2C-467A-88CC-C0BC5F9F30E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4237,16 +6967,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>776287</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>300037</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8202,8 +10932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8871,8 +11601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
